--- a/Portable/speaking.xlsx
+++ b/Portable/speaking.xlsx
@@ -12396,7 +12396,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="D4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E4" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12408,25 +12408,25 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="H4" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="I4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="J4" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="K4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="L4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="M4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="O4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12435,10 +12435,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="Q4" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="R4" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12447,7 +12447,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="U4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12462,7 +12462,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA4" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12495,16 +12495,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AM4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
     </row>
     <row r="5" spans="1:40" customFormat="false">
@@ -12524,16 +12524,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="F5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="H5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="J5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12542,7 +12542,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="L5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="M5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12557,13 +12557,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="Q5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="R5" s="0" t="str">
         <v xml:space="preserve">  B </v>
       </c>
       <c r="S5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="T5" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12578,13 +12578,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="Y5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AA5" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12608,22 +12608,22 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AI5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AJ5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AK5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN5" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12634,13 +12634,13 @@
         <v>INTERMEDIATE ask, answer variety of questions</v>
       </c>
       <c r="B6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="C6" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="D6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12655,7 +12655,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="J6" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12667,7 +12667,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="M6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="N6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12682,31 +12682,31 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="R6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T6" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="U6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="V6" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="W6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AA6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12721,13 +12721,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AE6" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AF6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AG6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AH6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12739,7 +12739,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK6" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AL6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12748,7 +12748,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="7" spans="1:40" customFormat="false">
@@ -12765,13 +12765,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="F7" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="H7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12789,7 +12789,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="M7" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="N7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12804,10 +12804,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="R7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="T7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12816,19 +12816,19 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="V7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="W7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12852,7 +12852,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AH7" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AI7" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12864,7 +12864,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AL7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12884,16 +12884,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="D8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="E8" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="H8" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12902,7 +12902,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="J8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K8" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12926,10 +12926,10 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="R8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S8" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="T8" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12944,7 +12944,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="Y8" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12956,7 +12956,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AB8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AC8" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -12974,7 +12974,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AH8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AI8" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12986,10 +12986,10 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="AL8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AN8" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13000,7 +13000,7 @@
         <v>NOVICE practiced words, phrases, sentences</v>
       </c>
       <c r="B9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="C9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13036,7 +13036,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="N9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="O9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13045,16 +13045,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="Q9" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="R9" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T9" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="U9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13069,7 +13069,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="Y9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Z9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13084,7 +13084,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD9" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AE9" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13105,16 +13105,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK9" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AM9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AN9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="10" spans="1:40" customFormat="false">
@@ -13122,28 +13122,28 @@
         <v>NOVICE formulaic/memorized questions</v>
       </c>
       <c r="B10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="C10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="D10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E10" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F10" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="H10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="J10" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13152,22 +13152,22 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="L10" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="M10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="O10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="Q10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="R10" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13197,10 +13197,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AA10" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AB10" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AC10" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13209,7 +13209,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="AE10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AF10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13218,7 +13218,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AI10" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13227,13 +13227,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AM10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AN10" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13244,7 +13244,7 @@
         <v>INTERMEDIATE strings of sentences</v>
       </c>
       <c r="B11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="C11" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13268,13 +13268,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="J11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="K11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="L11" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="M11" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13292,7 +13292,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="R11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13301,10 +13301,10 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="U11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="V11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="W11" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13349,10 +13349,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AL11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13366,16 +13366,16 @@
         <v>INTERMEDIATE connected sentences</v>
       </c>
       <c r="B12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="C12" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="D12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="F12" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13390,13 +13390,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="J12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="K12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="L12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="M12" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13408,7 +13408,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="P12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="Q12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13438,7 +13438,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z12" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AA12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13447,7 +13447,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AC12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AD12" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13459,7 +13459,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AG12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AH12" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13471,10 +13471,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK12" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AL12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13494,16 +13494,16 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="D13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E13" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="F13" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="G13" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="H13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13518,13 +13518,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L13" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="M13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="O13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13536,7 +13536,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="R13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13554,13 +13554,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y13" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13578,10 +13578,10 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AF13" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AG13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AH13" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13602,7 +13602,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
     </row>
     <row r="14" spans="1:40" customFormat="false">
@@ -13622,7 +13622,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="F14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13643,7 +13643,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="M14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="N14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13658,13 +13658,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="R14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="S14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="T14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="U14" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13673,7 +13673,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="X14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13688,7 +13688,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AB14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AC14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13712,16 +13712,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AJ14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AK14" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM14" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AN14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13732,7 +13732,7 @@
         <v>NOVICE formulaic</v>
       </c>
       <c r="B15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="C15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13750,7 +13750,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="H15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="I15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13789,13 +13789,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="U15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="X15" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13804,7 +13804,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z15" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AA15" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13819,7 +13819,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AE15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AF15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13828,10 +13828,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AH15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AI15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AJ15" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13840,7 +13840,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13863,22 +13863,22 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="E16" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="F16" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="G16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="H16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="I16" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="J16" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K16" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13899,7 +13899,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Q16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="R16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13911,19 +13911,19 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="U16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="X16" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="Y16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="Z16" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13938,7 +13938,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD16" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AE16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13953,22 +13953,22 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AI16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AJ16" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL16" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="17" spans="1:40" customFormat="false">
@@ -14036,7 +14036,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="V17" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="W17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14078,10 +14078,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AJ17" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AK17" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AL17" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -14090,7 +14090,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="18" spans="1:40" customFormat="false">
@@ -14101,7 +14101,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C18" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="D18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14119,10 +14119,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I18" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="J18" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14131,13 +14131,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="M18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="O18" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="P18" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14149,28 +14149,28 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="S18" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="T18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="U18" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="V18" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="W18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y18" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="Z18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14191,13 +14191,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AG18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AH18" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="AI18" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AJ18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14223,22 +14223,22 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="D19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E19" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F19" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G19" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="H19" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="I19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14253,31 +14253,31 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="M19" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="N19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="O19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="P19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Q19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="R19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="T19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="U19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14295,7 +14295,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AA19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AB19" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14304,7 +14304,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AD19" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AE19" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14325,13 +14325,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL19" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN19" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -14348,19 +14348,19 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="E20" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G20" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="H20" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="I20" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -14399,7 +14399,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="U20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="V20" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14417,7 +14417,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AA20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AB20" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14429,7 +14429,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AE20" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AF20" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -14438,7 +14438,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="AH20" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AI20" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14450,7 +14450,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM20" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14470,13 +14470,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D21" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="E21" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F21" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G21" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14578,7 +14578,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN21" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="22" spans="1:40" customFormat="false">
@@ -14592,13 +14592,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D22" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="E22" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14610,7 +14610,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="J22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14667,7 +14667,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AC22" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AD22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14676,7 +14676,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AF22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AG22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14694,7 +14694,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM22" s="0" t="str">
         <v xml:space="preserve">    </v>
